--- a/Assets/2048.xlsx
+++ b/Assets/2048.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="球颜色、大小" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +240,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,20 +273,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,22 +295,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,14 +324,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,43 +334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,12 +412,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,13 +424,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,79 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,11 +799,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,6 +819,50 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,41 +883,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -881,21 +896,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -904,10 +904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,133 +916,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1524,10 +1524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B2" s="41">
         <v>0.649090909090907</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="42"/>
       <c r="G2" s="41"/>
@@ -1564,13 +1564,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B3" s="41">
         <v>0.649090909090907</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="42"/>
       <c r="G3" s="41"/>
@@ -1578,27 +1578,27 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B4" s="41">
-        <v>0.811363636363632</v>
+        <v>0.649090909090907</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="42"/>
       <c r="G4" s="41"/>
       <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="40">
-        <v>2</v>
+      <c r="A5">
+        <v>-1</v>
       </c>
       <c r="B5" s="41">
-        <v>0.357</v>
-      </c>
-      <c r="C5" s="40">
-        <v>10</v>
+        <v>0.811363636363632</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
       </c>
       <c r="E5" s="42"/>
       <c r="G5" s="41"/>
@@ -1606,13 +1606,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="41">
-        <v>0.432727272727273</v>
+        <v>0.357</v>
       </c>
       <c r="C6" s="40">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="42"/>
       <c r="G6" s="41"/>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="41">
-        <v>0.519272727272727</v>
+        <v>0.432727272727273</v>
       </c>
       <c r="C7" s="40">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E7" s="42"/>
       <c r="G7" s="41"/>
@@ -1634,13 +1634,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="40">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8" s="41">
-        <v>0.616636363636363</v>
+        <v>0.519272727272727</v>
       </c>
       <c r="C8" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="42"/>
       <c r="G8" s="41"/>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="40">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B9" s="41">
-        <v>0.649090909090907</v>
+        <v>0.616636363636363</v>
       </c>
       <c r="C9" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="42"/>
       <c r="G9" s="41"/>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="40">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B10" s="41">
-        <v>0.811363636363632</v>
+        <v>0.649090909090907</v>
       </c>
       <c r="C10" s="40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E10" s="42"/>
       <c r="G10" s="41"/>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="40">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B11" s="41">
-        <v>0.887090909090904</v>
+        <v>0.811363636363632</v>
       </c>
       <c r="C11" s="40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="42"/>
       <c r="G11" s="41"/>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="40">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B12" s="41">
-        <v>0.973636363636364</v>
+        <v>0.887090909090904</v>
       </c>
       <c r="C12" s="40">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E12" s="42"/>
       <c r="G12" s="41"/>
@@ -1704,34 +1704,45 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="40">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="B13" s="41">
-        <v>1.04936363636364</v>
+        <v>0.973636363636364</v>
       </c>
       <c r="C13" s="40">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="B14" s="41">
-        <v>1.19</v>
+        <v>1.04936363636364</v>
       </c>
       <c r="C14" s="40">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="40">
+        <v>1024</v>
+      </c>
+      <c r="B15" s="41">
+        <v>1.19</v>
+      </c>
+      <c r="C15" s="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="40">
         <v>2048</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B16" s="41">
         <v>1.42259090909091</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C16" s="40">
         <v>16</v>
       </c>
     </row>
@@ -2703,7 +2714,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2743,7 +2754,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="16">
-        <v>3000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2768,7 +2779,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C4" s="16">
         <v>200</v>
@@ -2811,7 +2822,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="16">
-        <v>9600</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2870,7 +2881,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="16">
         <v>40</v>
@@ -2896,7 +2907,7 @@
         <v>-1</v>
       </c>
       <c r="E11" s="16">
-        <v>9600</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3032,8 +3043,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3718,7 +3729,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="C23" s="4">
         <v>9999999</v>

--- a/Assets/2048.xlsx
+++ b/Assets/2048.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="6"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="球颜色、大小" sheetId="1" r:id="rId1"/>
@@ -141,12 +141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -182,6 +182,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -189,28 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,31 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,23 +249,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,6 +286,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,43 +334,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,25 +442,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,25 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,31 +502,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,70 +799,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,6 +823,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -896,6 +863,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -904,10 +904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,133 +916,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1526,7 +1526,7 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2714,7 +2714,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2754,7 +2754,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="16">
-        <v>10000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2822,7 +2822,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="16">
-        <v>13000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2907,7 +2907,7 @@
         <v>-1</v>
       </c>
       <c r="E11" s="16">
-        <v>13000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3043,8 +3043,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3729,7 +3729,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="C23" s="4">
         <v>9999999</v>
